--- a/第六回宿題2累計分布関数図.xlsx
+++ b/第六回宿題2累計分布関数図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UEC\二年\JRE\K演\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDF95CE-F0E0-403B-9B76-EDEB67840E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED146D2F-AA69-4B6A-BC1A-A3AAAD0B419D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,10 +320,10 @@
                   <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -640,7 +640,9 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -679,10 +681,10 @@
                   <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -723,35 +725,39 @@
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>確率変数</a:t>
-                </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>X</a:t>
+                  <a:t>x</a:t>
                 </a:r>
                 <a:endParaRPr lang="ja-JP" altLang="en-US">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.9333392740086115"/>
+              <c:y val="0.82500002755905077"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -769,9 +775,9 @@
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ja-JP"/>
@@ -829,7 +835,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -839,7 +845,7 @@
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>確率</a:t>
@@ -847,14 +853,14 @@
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>P</a:t>
                 </a:r>
                 <a:endParaRPr lang="ja-JP" altLang="en-US">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                 </a:endParaRPr>
               </a:p>
@@ -875,7 +881,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2111,20 +2117,20 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>350335</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>138451</xdr:rowOff>
+      <xdr:rowOff>48592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>299535</xdr:colOff>
+      <xdr:colOff>331852</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>138452</xdr:rowOff>
+      <xdr:rowOff>48593</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="24" name="グループ化 23">
+        <xdr:cNvPr id="40" name="グループ化 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEE6918F-D8A9-4C0B-4B3E-CDBEFD44CC9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696391FF-1639-5F2A-7EBD-6CBAD1690CD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2132,18 +2138,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4336181" y="363143"/>
-          <a:ext cx="4599354" cy="2696309"/>
-          <a:chOff x="4073498" y="474947"/>
-          <a:chExt cx="4584157" cy="2735385"/>
+          <a:off x="4325700" y="280102"/>
+          <a:ext cx="4611725" cy="2778126"/>
+          <a:chOff x="4316090" y="366093"/>
+          <a:chExt cx="4594253" cy="2731699"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="8" name="グループ化 7">
+          <xdr:cNvPr id="24" name="グループ化 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F72F3398-3ADA-8506-5724-37AD33BB2925}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEE6918F-D8A9-4C0B-4B3E-CDBEFD44CC9A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2151,48 +2157,432 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="4073498" y="474947"/>
-            <a:ext cx="4584157" cy="2735385"/>
-            <a:chOff x="4064000" y="476250"/>
-            <a:chExt cx="4572000" cy="2743200"/>
+            <a:off x="4316090" y="366093"/>
+            <a:ext cx="4561936" cy="2731699"/>
+            <a:chOff x="4073498" y="474947"/>
+            <a:chExt cx="4584157" cy="2735385"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="グラフ 1">
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="8" name="グループ化 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC5F824-0C85-2FD4-2742-338103179F16}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F72F3398-3ADA-8506-5724-37AD33BB2925}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="4064000" y="476250"/>
-            <a:ext cx="4572000" cy="2743200"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="4073498" y="474947"/>
+              <a:ext cx="4584157" cy="2735385"/>
+              <a:chOff x="4064000" y="476250"/>
+              <a:chExt cx="4572000" cy="2743200"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:graphicFrame macro="">
+            <xdr:nvGraphicFramePr>
+              <xdr:cNvPr id="2" name="グラフ 1">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC5F824-0C85-2FD4-2742-338103179F16}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGraphicFramePr/>
+            </xdr:nvGraphicFramePr>
+            <xdr:xfrm>
+              <a:off x="4064000" y="476250"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </xdr:xfrm>
+            <a:graphic>
+              <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+              </a:graphicData>
+            </a:graphic>
+          </xdr:graphicFrame>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="4" name="テキスト ボックス 3">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32B14DB-E0CB-4D40-9454-6895DF89E9FB}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="4583762" y="508000"/>
+                <a:ext cx="241300" cy="292100"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+                  <a:t>&gt;</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="5" name="テキスト ボックス 4">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A10D22F1-E9B2-4035-AD69-83100F3AC72C}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8299450" y="2494770"/>
+                <a:ext cx="241300" cy="292100"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+                  <a:t>&gt;</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="10" name="直線コネクタ 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{898BF716-BDA5-39B6-C11E-7125D3B0C467}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="6605928" y="1836542"/>
+              <a:ext cx="6079" cy="819489"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+              <a:headEnd type="none" w="med" len="med"/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="11" name="直線コネクタ 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32D7DA8E-B2A4-4B03-A8A2-8F6FF1B2748A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5670498" y="2125654"/>
+              <a:ext cx="403" cy="528434"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+              <a:headEnd type="none" w="med" len="med"/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="13" name="直線コネクタ 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F672E59-47B8-4980-9683-39A839A4691C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="7546680" y="992121"/>
+              <a:ext cx="4283" cy="1658574"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+              <a:headEnd type="none" w="med" len="med"/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="15" name="直線コネクタ 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B4262F0-A01E-411D-BC54-EDA63D9C2403}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="4732650" y="949503"/>
+              <a:ext cx="2785837" cy="5712"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+              <a:headEnd type="none" w="med" len="med"/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="17" name="直線コネクタ 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56356691-87FA-44A9-A326-D1EA7326A9C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="4733084" y="2083476"/>
+              <a:ext cx="903988" cy="4187"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+              <a:headEnd type="none" w="med" len="med"/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="19" name="直線コネクタ 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F068D2-673E-4AFA-BF2F-CC600A9CDA5D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="4733084" y="1801627"/>
+              <a:ext cx="1846287" cy="4266"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+              <a:headEnd type="none" w="med" len="med"/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="テキスト ボックス 3">
+            <xdr:cNvPr id="21" name="テキスト ボックス 20">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32B14DB-E0CB-4D40-9454-6895DF89E9FB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE368A2-1547-000F-9A1D-54F2E474F3E1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
-            <a:xfrm rot="16200000">
-              <a:off x="4583762" y="508000"/>
-              <a:ext cx="241300" cy="292100"/>
+            <a:xfrm>
+              <a:off x="4394443" y="1918231"/>
+              <a:ext cx="390769" cy="244230"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2221,19 +2611,21 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-                <a:t>&gt;</a:t>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>1/3</a:t>
               </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="テキスト ボックス 4">
+            <xdr:cNvPr id="22" name="テキスト ボックス 21">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A10D22F1-E9B2-4035-AD69-83100F3AC72C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21386F44-FE3B-4B05-B904-E3719199EC18}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2241,8 +2633,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8299450" y="2436585"/>
-              <a:ext cx="241300" cy="292100"/>
+              <a:off x="4500950" y="814191"/>
+              <a:ext cx="390769" cy="244230"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2271,52 +2663,258 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-                <a:t>&gt;</a:t>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>1</a:t>
               </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="テキスト ボックス 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C5D2A0-FB15-4021-8635-AA384E15AAEF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4402508" y="1627212"/>
+              <a:ext cx="390769" cy="244230"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>1/2</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="10" name="直線コネクタ 9">
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="フローチャート: 結合子 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{898BF716-BDA5-39B6-C11E-7125D3B0C467}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A0DB4E0-93D6-FD28-502C-B87ED1DB2DA9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5876571" y="2514244"/>
+            <a:ext cx="59531" cy="59531"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="フローチャート: 結合子 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78308142-C277-4B7B-AFE0-2D5AFE5BE51A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6813768" y="1946366"/>
+            <a:ext cx="59531" cy="59531"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="フローチャート: 結合子 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424D58D2-4976-4927-B1FC-75A71AE69090}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7750771" y="1664739"/>
+            <a:ext cx="59531" cy="59531"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="28" name="直線コネクタ 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAB87967-76A9-B235-E168-C66851AA6BDE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="18" idx="2"/>
+          </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="5670821" y="1501042"/>
-            <a:ext cx="6350" cy="1076244"/>
+          <a:xfrm flipV="1">
+            <a:off x="4649037" y="2544010"/>
+            <a:ext cx="1227534" cy="579"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:prstDash val="sysDot"/>
-            <a:round/>
-            <a:headEnd type="none" w="med" len="med"/>
-            <a:tailEnd type="none" w="med" len="med"/>
-          </a:ln>
         </xdr:spPr>
         <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
           </a:lnRef>
           <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
+            <a:schemeClr val="dk1"/>
           </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
           </a:effectRef>
           <a:fontRef idx="minor">
             <a:schemeClr val="tx1"/>
@@ -2325,42 +2923,38 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <xdr:cNvPr id="31" name="直線コネクタ 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32D7DA8E-B2A4-4B03-A8A2-8F6FF1B2748A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54AB1CC2-A9ED-4625-8112-7943105F6C57}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6605823" y="2079281"/>
-            <a:ext cx="185" cy="504355"/>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="4973292" y="2170369"/>
+            <a:ext cx="1081" cy="643474"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525">
             <a:solidFill>
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
-            <a:prstDash val="sysDot"/>
-            <a:round/>
-            <a:headEnd type="none" w="med" len="med"/>
-            <a:tailEnd type="none" w="med" len="med"/>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
           </a:lnRef>
           <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
+            <a:schemeClr val="dk1"/>
           </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
           </a:effectRef>
           <a:fontRef idx="minor">
             <a:schemeClr val="tx1"/>
@@ -2369,42 +2963,35 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <xdr:cNvPr id="34" name="直線コネクタ 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F672E59-47B8-4980-9683-39A839A4691C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F841E1E2-C6CD-49C6-ACBF-EB83FEC425C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="20" idx="2"/>
+          </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="7546680" y="943984"/>
-            <a:ext cx="2690" cy="1636261"/>
+          <a:xfrm flipV="1">
+            <a:off x="5898231" y="1976132"/>
+            <a:ext cx="915537" cy="3597"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:prstDash val="sysDot"/>
-            <a:round/>
-            <a:headEnd type="none" w="med" len="med"/>
-            <a:tailEnd type="none" w="med" len="med"/>
-          </a:ln>
         </xdr:spPr>
         <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
           </a:lnRef>
           <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
+            <a:schemeClr val="dk1"/>
           </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
           </a:effectRef>
           <a:fontRef idx="minor">
             <a:schemeClr val="tx1"/>
@@ -2413,42 +3000,33 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <xdr:cNvPr id="36" name="直線コネクタ 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B4262F0-A01E-411D-BC54-EDA63D9C2403}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A402EEF4-DA2A-4D30-8238-F48B677D3EAB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="4732650" y="945184"/>
-            <a:ext cx="2808341" cy="10030"/>
+          <a:xfrm flipV="1">
+            <a:off x="6835771" y="1692775"/>
+            <a:ext cx="916154" cy="3597"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:prstDash val="sysDot"/>
-            <a:round/>
-            <a:headEnd type="none" w="med" len="med"/>
-            <a:tailEnd type="none" w="med" len="med"/>
-          </a:ln>
         </xdr:spPr>
         <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
           </a:lnRef>
           <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
+            <a:schemeClr val="dk1"/>
           </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
           </a:effectRef>
           <a:fontRef idx="minor">
             <a:schemeClr val="tx1"/>
@@ -2457,86 +3035,33 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="17" name="直線コネクタ 16">
+          <xdr:cNvPr id="37" name="直線コネクタ 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56356691-87FA-44A9-A326-D1EA7326A9C1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE7FB19-C68D-4440-9CC0-E26043E15891}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="4733084" y="1508803"/>
-            <a:ext cx="933070" cy="435"/>
+          <a:xfrm>
+            <a:off x="7780483" y="840527"/>
+            <a:ext cx="727641" cy="1148"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:prstDash val="sysDot"/>
-            <a:round/>
-            <a:headEnd type="none" w="med" len="med"/>
-            <a:tailEnd type="none" w="med" len="med"/>
-          </a:ln>
         </xdr:spPr>
         <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
           </a:lnRef>
           <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
+            <a:schemeClr val="dk1"/>
           </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="19" name="直線コネクタ 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F068D2-673E-4AFA-BF2F-CC600A9CDA5D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="4733084" y="2067821"/>
-            <a:ext cx="1877429" cy="434"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:prstDash val="sysDot"/>
-            <a:round/>
-            <a:headEnd type="none" w="med" len="med"/>
-            <a:tailEnd type="none" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
           </a:effectRef>
           <a:fontRef idx="minor">
             <a:schemeClr val="tx1"/>
@@ -2545,10 +3070,10 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <xdr:cNvPr id="39" name="テキスト ボックス 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE368A2-1547-000F-9A1D-54F2E474F3E1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34A0BA14-4F8E-4E4B-A6DB-F64659A7CA6A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2556,8 +3081,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4412436" y="1383975"/>
-            <a:ext cx="390769" cy="244230"/>
+            <a:off x="8521468" y="2564631"/>
+            <a:ext cx="388875" cy="243901"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2586,126 +3111,26 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>1/3</a:t>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" i="1">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>x</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="テキスト ボックス 21">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21386F44-FE3B-4B05-B904-E3719199EC18}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4396588" y="1932571"/>
-            <a:ext cx="390769" cy="244230"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>1/6</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="テキスト ボックス 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C5D2A0-FB15-4021-8635-AA384E15AAEF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4413304" y="825826"/>
-            <a:ext cx="390769" cy="244230"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>1/2</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" i="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>175846</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>396174</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>97693</xdr:rowOff>
     </xdr:from>
@@ -2715,40 +3140,228 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>9769</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="グラフィックス 24">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="46" name="グループ化 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42FD0CB7-AA48-C301-4EAE-457A5AC05CB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06907A3A-8A89-056A-3017-9DDEE8337D91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="25110" t="4161" r="33934" b="29725"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10140461" y="996462"/>
-          <a:ext cx="3426626" cy="3057769"/>
+          <a:off x="9663205" y="1023735"/>
+          <a:ext cx="3853509" cy="3153222"/>
+          <a:chOff x="9679537" y="1019286"/>
+          <a:chExt cx="3863343" cy="3137651"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="25" name="グラフィックス 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42FD0CB7-AA48-C301-4EAE-457A5AC05CB5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="25110" t="4161" r="33934" b="29725"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10122306" y="1019286"/>
+            <a:ext cx="3420574" cy="3137651"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="41" name="直線コネクタ 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CBBDD6D-4703-4EDA-B35B-FD9E47669829}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12576870" y="1749755"/>
+            <a:ext cx="734401" cy="1164"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="31750"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="42" name="直線コネクタ 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C53E66DB-C14B-404A-8655-183AD2A0FE7B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="10168710" y="3691154"/>
+            <a:ext cx="520703" cy="2273"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="34925"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="円弧 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F851FD-5161-96D2-C166-211C75D0A9DD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="9682346" y="1770135"/>
+            <a:ext cx="1916239" cy="1921858"/>
+          </a:xfrm>
+          <a:prstGeom prst="arc">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="円弧 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC3C9C1-FE96-4BF5-AABE-160BF63C34A5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="11610500" y="1742711"/>
+            <a:ext cx="1916239" cy="1921858"/>
+          </a:xfrm>
+          <a:prstGeom prst="arc">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3084,8 +3697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView tabSelected="1" topLeftCell="K4" zoomScale="96" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3144,10 +3757,10 @@
         <v>0.33</v>
       </c>
       <c r="E8" s="2">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J8" s="10"/>
     </row>
